--- a/CHEQUE_Book_Data_5_9_2022.xlsx
+++ b/CHEQUE_Book_Data_5_9_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="724">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
   <x:si>
     <x:t>CHQ_ORDER_DATE</x:t>
   </x:si>
@@ -52,6 +52,9 @@
     <x:t>TEL_NO</x:t>
   </x:si>
   <x:si>
+    <x:t>01-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>EMMANUEL ASIAMAH</x:t>
   </x:si>
   <x:si>
@@ -226,6 +229,9 @@
     <x:t>/0243229076//</x:t>
   </x:si>
   <x:si>
+    <x:t>02-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>KOFI BOBIE</x:t>
   </x:si>
   <x:si>
@@ -394,6 +400,9 @@
     <x:t>/0595294658//</x:t>
   </x:si>
   <x:si>
+    <x:t>03-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>ASARE FRANK</x:t>
   </x:si>
   <x:si>
@@ -562,6 +571,9 @@
     <x:t>0241380789///</x:t>
   </x:si>
   <x:si>
+    <x:t>04-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>BISMARK PHILIP ASIAMA</x:t>
   </x:si>
   <x:si>
@@ -640,6 +652,9 @@
     <x:t>0273550155///</x:t>
   </x:si>
   <x:si>
+    <x:t>07-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>ISAAC BOATENG</x:t>
   </x:si>
   <x:si>
@@ -823,6 +838,9 @@
     <x:t>/0277838373//</x:t>
   </x:si>
   <x:si>
+    <x:t>08-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>YAW DANIEL ADU</x:t>
   </x:si>
   <x:si>
@@ -1114,6 +1132,9 @@
     <x:t>/0244784666//</x:t>
   </x:si>
   <x:si>
+    <x:t>09-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>ALEX BOANSI</x:t>
   </x:si>
   <x:si>
@@ -1201,6 +1222,9 @@
     <x:t>105CBCH220400001</x:t>
   </x:si>
   <x:si>
+    <x:t>10-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>ALHAJI CHANTAN NO. 2</x:t>
   </x:si>
   <x:si>
@@ -1318,6 +1342,9 @@
     <x:t>108CBCH220410001</x:t>
   </x:si>
   <x:si>
+    <x:t>11-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>BENEDICTA KING</x:t>
   </x:si>
   <x:si>
@@ -1462,6 +1489,9 @@
     <x:t>/0543769089//</x:t>
   </x:si>
   <x:si>
+    <x:t>14-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>FRAIKU'S ENTERPRISE</x:t>
   </x:si>
   <x:si>
@@ -1618,6 +1648,9 @@
     <x:t>/0244286417//</x:t>
   </x:si>
   <x:si>
+    <x:t>15-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>FOLLY-NOTSRON KOKOU EKUE</x:t>
   </x:si>
   <x:si>
@@ -1732,6 +1765,9 @@
     <x:t>244921321///</x:t>
   </x:si>
   <x:si>
+    <x:t>16-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>LEONIE NAA ADJELEY ADZIMAH</x:t>
   </x:si>
   <x:si>
@@ -1828,6 +1864,9 @@
     <x:t>/0246132070//</x:t>
   </x:si>
   <x:si>
+    <x:t>17-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>VINCENT OTOO FORSON</x:t>
   </x:si>
   <x:si>
@@ -1927,6 +1966,9 @@
     <x:t>0277478200///</x:t>
   </x:si>
   <x:si>
+    <x:t>18-00-2022</x:t>
+  </x:si>
+  <x:si>
     <x:t>AMPONSAH ELIZABETH</x:t>
   </x:si>
   <x:si>
@@ -2084,6 +2126,9 @@
   </x:si>
   <x:si>
     <x:t>0557927431///</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21-00-2022</x:t>
   </x:si>
   <x:si>
     <x:t>ADAM IBRAHIM</x:t>
@@ -2195,8 +2240,16 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -2212,7 +2265,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="4">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -2230,21 +2283,93 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="medium">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="43" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -2550,61 +2675,61 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:12">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="H1" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+      <x:c r="J1" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="0" t="s">
+      <x:c r="K1" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+      <x:c r="L1" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12">
-      <x:c r="A2" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A2" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>8100000164723</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>25</x:v>
@@ -2613,36 +2738,36 @@
         <x:v>987062</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="A3" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>8100000092160</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>25</x:v>
@@ -2651,36 +2776,36 @@
         <x:v>82951</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="A4" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>8100000271664</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>25</x:v>
@@ -2689,36 +2814,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
-      <x:c r="A5" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>8100000276859</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>25</x:v>
@@ -2727,36 +2852,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12">
-      <x:c r="A6" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A6" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>8100000081547</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>25</x:v>
@@ -2765,36 +2890,36 @@
         <x:v>307676</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12">
-      <x:c r="A7" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A7" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>8100000025976</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>25</x:v>
@@ -2803,36 +2928,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12">
-      <x:c r="A8" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A8" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>8100000108882</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>25</x:v>
@@ -2841,36 +2966,36 @@
         <x:v>860672</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12">
-      <x:c r="A9" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A9" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>8100000172772</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>25</x:v>
@@ -2879,36 +3004,36 @@
         <x:v>56576</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12">
-      <x:c r="A10" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A10" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>8100000178868</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>50</x:v>
@@ -2917,36 +3042,36 @@
         <x:v>221796</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12">
-      <x:c r="A11" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A11" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>8100000275341</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>25</x:v>
@@ -2955,36 +3080,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:12">
-      <x:c r="A12" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A12" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
         <x:v>8100000199631</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>25</x:v>
@@ -2993,36 +3118,36 @@
         <x:v>345771</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:12">
-      <x:c r="A13" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A13" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
         <x:v>8100000066156</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>25</x:v>
@@ -3031,36 +3156,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:12">
-      <x:c r="A14" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A14" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
         <x:v>8100000253285</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>25</x:v>
@@ -3069,36 +3194,36 @@
         <x:v>275402</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K14" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:12">
-      <x:c r="A15" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A15" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
         <x:v>8100000051253</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>25</x:v>
@@ -3107,36 +3232,36 @@
         <x:v>313976</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K15" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:12">
-      <x:c r="A16" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A16" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
         <x:v>8100000023201</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>25</x:v>
@@ -3145,36 +3270,36 @@
         <x:v>123476</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:12">
-      <x:c r="A17" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A17" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
         <x:v>8100000059112</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>50</x:v>
@@ -3183,36 +3308,36 @@
         <x:v>221401</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:12">
-      <x:c r="A18" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A18" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
         <x:v>8100000130404</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>25</x:v>
@@ -3221,36 +3346,36 @@
         <x:v>954040</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:12">
-      <x:c r="A19" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A19" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
         <x:v>8100000184767</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>25</x:v>
@@ -3259,36 +3384,36 @@
         <x:v>63726</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:12">
-      <x:c r="A20" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A20" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B20" s="0" t="n">
         <x:v>8100000116837</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>25</x:v>
@@ -3297,36 +3422,36 @@
         <x:v>51451</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L20" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:12">
-      <x:c r="A21" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A21" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B21" s="0" t="n">
         <x:v>8100000270651</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>25</x:v>
@@ -3335,36 +3460,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L21" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:12">
-      <x:c r="A22" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A22" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B22" s="0" t="n">
         <x:v>8100000159262</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>25</x:v>
@@ -3373,36 +3498,36 @@
         <x:v>917026</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:12">
-      <x:c r="A23" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A23" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
         <x:v>8100000282020</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>25</x:v>
@@ -3411,36 +3536,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L23" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:12">
-      <x:c r="A24" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A24" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
         <x:v>8100000177010</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>25</x:v>
@@ -3449,36 +3574,36 @@
         <x:v>49651</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L24" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:12">
-      <x:c r="A25" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A25" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
         <x:v>8100000011526</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>25</x:v>
@@ -3487,36 +3612,36 @@
         <x:v>619626</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:12">
-      <x:c r="A26" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A26" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
         <x:v>8100000039749</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>25</x:v>
@@ -3525,36 +3650,36 @@
         <x:v>960051</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:12">
-      <x:c r="A27" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A27" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
         <x:v>8100000255574</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>25</x:v>
@@ -3563,36 +3688,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:12">
-      <x:c r="A28" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A28" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
         <x:v>8100000061592</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>25</x:v>
@@ -3601,36 +3726,36 @@
         <x:v>55576</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K28" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L28" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:12">
-      <x:c r="A29" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A29" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B29" s="0" t="n">
         <x:v>8100000255619</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>25</x:v>
@@ -3639,36 +3764,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="K29" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L29" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:12">
-      <x:c r="A30" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A30" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B30" s="0" t="n">
         <x:v>8100000104978</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>50</x:v>
@@ -3677,36 +3802,36 @@
         <x:v>867025</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="K30" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L30" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:12">
-      <x:c r="A31" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A31" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B31" s="0" t="n">
         <x:v>8100000260736</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>25</x:v>
@@ -3715,36 +3840,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K31" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L31" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:12">
-      <x:c r="A32" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A32" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B32" s="0" t="n">
         <x:v>8100000073488</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>25</x:v>
@@ -3753,36 +3878,36 @@
         <x:v>197003</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="K32" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L32" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:12">
-      <x:c r="A33" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A33" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
         <x:v>8100000003692</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>25</x:v>
@@ -3791,36 +3916,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="K33" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L33" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:12">
-      <x:c r="A34" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A34" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
         <x:v>8100000289817</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>25</x:v>
@@ -3829,36 +3954,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="K34" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L34" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:12">
-      <x:c r="A35" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A35" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
         <x:v>8100000045412</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>25</x:v>
@@ -3867,36 +3992,36 @@
         <x:v>39026</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K35" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L35" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:12">
-      <x:c r="A36" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A36" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
         <x:v>8100000151625</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>25</x:v>
@@ -3905,36 +4030,36 @@
         <x:v>258938</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="K36" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L36" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:12">
-      <x:c r="A37" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A37" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B37" s="0" t="n">
         <x:v>8100000102033</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>50</x:v>
@@ -3943,36 +4068,36 @@
         <x:v>97001</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L37" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:12">
-      <x:c r="A38" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A38" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
         <x:v>8100000165891</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>25</x:v>
@@ -3981,36 +4106,36 @@
         <x:v>65426</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L38" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:12">
-      <x:c r="A39" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A39" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
         <x:v>8100000137751</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>25</x:v>
@@ -4019,36 +4144,36 @@
         <x:v>67901</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L39" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:12">
-      <x:c r="A40" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A40" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
         <x:v>8100000245884</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>25</x:v>
@@ -4057,36 +4182,36 @@
         <x:v>132076</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="K40" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L40" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:12">
-      <x:c r="A41" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A41" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
         <x:v>8100000286312</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>50</x:v>
@@ -4095,36 +4220,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="K41" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L41" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:12">
-      <x:c r="A42" s="1">
-        <x:v>44595</x:v>
+      <x:c r="A42" s="0" t="s">
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
         <x:v>8100000267354</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>25</x:v>
@@ -4133,36 +4258,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="K42" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:12">
-      <x:c r="A43" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A43" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
         <x:v>8100000213938</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>25</x:v>
@@ -4171,36 +4296,36 @@
         <x:v>324551</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="K43" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L43" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:12">
+      <x:c r="A44" s="0" t="s">
         <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:12">
-      <x:c r="A44" s="1">
-        <x:v>44596</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
         <x:v>8100000002876</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>50</x:v>
@@ -4209,36 +4334,36 @@
         <x:v>30701</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:12">
-      <x:c r="A45" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A45" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
         <x:v>8100000289882</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>25</x:v>
@@ -4247,36 +4372,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L45" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:12">
-      <x:c r="A46" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A46" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
         <x:v>8100000111533</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>25</x:v>
@@ -4285,36 +4410,36 @@
         <x:v>242866</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L46" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:12">
-      <x:c r="A47" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A47" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
         <x:v>8100000285364</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>25</x:v>
@@ -4323,36 +4448,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L47" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:12">
-      <x:c r="A48" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A48" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
         <x:v>8100000217500</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>50</x:v>
@@ -4361,36 +4486,36 @@
         <x:v>217496</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="K48" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L48" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:12">
-      <x:c r="A49" s="1">
-        <x:v>44596</x:v>
+      <x:c r="A49" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
         <x:v>8100000145078</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>50</x:v>
@@ -4399,36 +4524,36 @@
         <x:v>61476</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="K49" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L49" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:12">
-      <x:c r="A50" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A50" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
         <x:v>8100000180865</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>25</x:v>
@@ -4437,36 +4562,36 @@
         <x:v>109426</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="K50" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L50" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:12">
-      <x:c r="A51" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A51" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B51" s="0" t="n">
         <x:v>8100000050363</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>25</x:v>
@@ -4475,36 +4600,36 @@
         <x:v>34026</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="K51" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L51" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:12">
-      <x:c r="A52" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A52" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
         <x:v>8100000287994</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>25</x:v>
@@ -4513,36 +4638,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="K52" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L52" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:12">
-      <x:c r="A53" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A53" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
         <x:v>8100000290000</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>25</x:v>
@@ -4551,36 +4676,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="K53" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L53" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:12">
-      <x:c r="A54" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A54" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
         <x:v>8100000290017</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>50</x:v>
@@ -4589,36 +4714,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="K54" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L54" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:12">
-      <x:c r="A55" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A55" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
         <x:v>8100000290045</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>50</x:v>
@@ -4627,36 +4752,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K55" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L55" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:12">
-      <x:c r="A56" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A56" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
         <x:v>8100000246504</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>25</x:v>
@@ -4665,36 +4790,36 @@
         <x:v>177301</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="K56" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L56" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:12">
-      <x:c r="A57" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A57" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
         <x:v>8100000038731</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>25</x:v>
@@ -4703,36 +4828,36 @@
         <x:v>115376</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L57" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:12">
-      <x:c r="A58" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A58" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
         <x:v>8100000289997</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>25</x:v>
@@ -4741,36 +4866,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:12">
-      <x:c r="A59" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A59" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
         <x:v>8100000153210</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>25</x:v>
@@ -4779,36 +4904,36 @@
         <x:v>307126</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L59" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:12">
-      <x:c r="A60" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A60" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
         <x:v>8100000253391</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>25</x:v>
@@ -4817,36 +4942,36 @@
         <x:v>3326</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="K60" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L60" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:12">
-      <x:c r="A61" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A61" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
         <x:v>8100000055615</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>50</x:v>
@@ -4855,36 +4980,36 @@
         <x:v>176251</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L61" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:12">
-      <x:c r="A62" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A62" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
         <x:v>8100000281381</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>25</x:v>
@@ -4893,36 +5018,36 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="L62" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:12">
-      <x:c r="A63" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A63" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
         <x:v>8100000152627</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>25</x:v>
@@ -4931,36 +5056,36 @@
         <x:v>9151</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L63" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:12">
-      <x:c r="A64" s="1">
-        <x:v>44599</x:v>
+      <x:c r="A64" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
         <x:v>8100000181891</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>25</x:v>
@@ -4969,36 +5094,36 @@
         <x:v>109751</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="K64" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:12">
-      <x:c r="A65" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A65" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
         <x:v>8100000069138</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>25</x:v>
@@ -5007,36 +5132,36 @@
         <x:v>842726</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:12">
-      <x:c r="A66" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A66" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
         <x:v>8100000062414</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>25</x:v>
@@ -5045,36 +5170,36 @@
         <x:v>293553</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L66" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:12">
-      <x:c r="A67" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A67" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
         <x:v>8100000087166</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>25</x:v>
@@ -5083,36 +5208,36 @@
         <x:v>328851</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L67" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:12">
-      <x:c r="A68" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A68" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
         <x:v>8100000208889</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>25</x:v>
@@ -5121,36 +5246,36 @@
         <x:v>133101</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:12">
-      <x:c r="A69" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A69" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
         <x:v>8100000052429</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>50</x:v>
@@ -5159,36 +5284,36 @@
         <x:v>6601</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L69" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:12">
-      <x:c r="A70" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A70" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
         <x:v>8100000290001</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>25</x:v>
@@ -5197,36 +5322,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L70" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:12">
-      <x:c r="A71" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A71" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
         <x:v>8100000289808</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>25</x:v>
@@ -5235,36 +5360,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L71" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:12">
-      <x:c r="A72" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A72" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
         <x:v>8100000197864</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>25</x:v>
@@ -5273,36 +5398,36 @@
         <x:v>93151</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>109</x:v>
       </x:c>
       <x:c r="L72" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:12">
-      <x:c r="A73" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A73" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
         <x:v>8100000235536</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>25</x:v>
@@ -5311,36 +5436,36 @@
         <x:v>328626</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L73" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:12">
-      <x:c r="A74" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A74" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
         <x:v>8100000157856</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>25</x:v>
@@ -5349,36 +5474,36 @@
         <x:v>133126</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L74" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:12">
-      <x:c r="A75" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A75" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
         <x:v>8100000284849</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>25</x:v>
@@ -5387,36 +5512,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L75" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:12">
-      <x:c r="A76" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A76" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
         <x:v>8100000003428</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>25</x:v>
@@ -5425,36 +5550,36 @@
         <x:v>276251</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L76" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:12">
-      <x:c r="A77" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A77" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
         <x:v>8100000190050</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>25</x:v>
@@ -5463,36 +5588,36 @@
         <x:v>275691</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L77" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:12">
-      <x:c r="A78" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A78" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
         <x:v>8100000201057</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>25</x:v>
@@ -5501,36 +5626,36 @@
         <x:v>917526</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L78" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:12">
-      <x:c r="A79" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A79" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
         <x:v>8100000027470</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>25</x:v>
@@ -5539,36 +5664,36 @@
         <x:v>978651</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L79" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:12">
-      <x:c r="A80" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A80" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B80" s="0" t="n">
         <x:v>8100000190221</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>25</x:v>
@@ -5577,36 +5702,36 @@
         <x:v>930272</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K80" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L80" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:12">
-      <x:c r="A81" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A81" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B81" s="0" t="n">
         <x:v>8100000241338</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>25</x:v>
@@ -5615,36 +5740,36 @@
         <x:v>634501</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="K81" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L81" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:12">
-      <x:c r="A82" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A82" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B82" s="0" t="n">
         <x:v>8100000102010</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>50</x:v>
@@ -5653,36 +5778,36 @@
         <x:v>221201</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L82" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:12">
-      <x:c r="A83" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A83" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B83" s="0" t="n">
         <x:v>8100000050698</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>25</x:v>
@@ -5691,36 +5816,36 @@
         <x:v>293606</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L83" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:12">
-      <x:c r="A84" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A84" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B84" s="0" t="n">
         <x:v>8100000097941</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>25</x:v>
@@ -5729,36 +5854,36 @@
         <x:v>158726</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L84" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:12">
-      <x:c r="A85" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A85" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B85" s="0" t="n">
         <x:v>8100000028748</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>25</x:v>
@@ -5767,36 +5892,36 @@
         <x:v>770726</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L85" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:12">
-      <x:c r="A86" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A86" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B86" s="0" t="n">
         <x:v>8100000265583</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
         <x:v>25</x:v>
@@ -5805,36 +5930,36 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="K86" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L86" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:12">
-      <x:c r="A87" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A87" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B87" s="0" t="n">
         <x:v>8100000219096</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>25</x:v>
@@ -5843,36 +5968,36 @@
         <x:v>943251</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L87" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:12">
-      <x:c r="A88" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A88" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B88" s="0" t="n">
         <x:v>8100000079643</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>25</x:v>
@@ -5881,36 +6006,36 @@
         <x:v>951567</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="K88" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L88" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:12">
-      <x:c r="A89" s="1">
-        <x:v>44600</x:v>
+      <x:c r="A89" s="0" t="s">
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B89" s="0" t="n">
         <x:v>8100000143964</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>25</x:v>
@@ -5919,36 +6044,36 @@
         <x:v>171526</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="L89" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:12">
-      <x:c r="A90" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A90" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B90" s="0" t="n">
         <x:v>8100000220251</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G90" s="0" t="n">
         <x:v>50</x:v>
@@ -5957,36 +6082,36 @@
         <x:v>789826</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="K90" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L90" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:12">
-      <x:c r="A91" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A91" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B91" s="0" t="n">
         <x:v>8100000223091</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G91" s="0" t="n">
         <x:v>50</x:v>
@@ -5995,36 +6120,36 @@
         <x:v>39901</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L91" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:12">
-      <x:c r="A92" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A92" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B92" s="0" t="n">
         <x:v>8100000289708</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G92" s="0" t="n">
         <x:v>50</x:v>
@@ -6033,36 +6158,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L92" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:12">
-      <x:c r="A93" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A93" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B93" s="0" t="n">
         <x:v>8100000127373</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
         <x:v>25</x:v>
@@ -6071,36 +6196,36 @@
         <x:v>967701</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L93" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:12">
-      <x:c r="A94" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A94" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B94" s="0" t="n">
         <x:v>8100000290132</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
         <x:v>25</x:v>
@@ -6109,36 +6234,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L94" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:12">
-      <x:c r="A95" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A95" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B95" s="0" t="n">
         <x:v>8100000241474</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G95" s="0" t="n">
         <x:v>25</x:v>
@@ -6147,36 +6272,36 @@
         <x:v>989450</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L95" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:12">
-      <x:c r="A96" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A96" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B96" s="0" t="n">
         <x:v>8100000103528</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G96" s="0" t="n">
         <x:v>25</x:v>
@@ -6185,36 +6310,36 @@
         <x:v>961660</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="J96" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="K96" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L96" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:12">
-      <x:c r="A97" s="1">
-        <x:v>44601</x:v>
+      <x:c r="A97" s="0" t="s">
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B97" s="0" t="n">
         <x:v>8100000289997</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G97" s="0" t="n">
         <x:v>25</x:v>
@@ -6223,36 +6348,36 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="K97" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L97" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:12">
-      <x:c r="A98" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A98" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B98" s="0" t="n">
         <x:v>8100000289170</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G98" s="0" t="n">
         <x:v>25</x:v>
@@ -6261,36 +6386,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L98" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:12">
-      <x:c r="A99" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A99" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B99" s="0" t="n">
         <x:v>8100000271272</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G99" s="0" t="n">
         <x:v>50</x:v>
@@ -6299,36 +6424,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="K99" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L99" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:12">
+      <x:c r="A100" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:12">
-      <x:c r="A100" s="1">
-        <x:v>44602</x:v>
       </x:c>
       <x:c r="B100" s="0" t="n">
         <x:v>8100000167089</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
         <x:v>25</x:v>
@@ -6337,36 +6462,36 @@
         <x:v>106376</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="K100" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L100" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:12">
-      <x:c r="A101" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A101" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B101" s="0" t="n">
         <x:v>8100000253976</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G101" s="0" t="n">
         <x:v>50</x:v>
@@ -6375,36 +6500,36 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="K101" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L101" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:12">
-      <x:c r="A102" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A102" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B102" s="0" t="n">
         <x:v>8100000107328</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G102" s="0" t="n">
         <x:v>25</x:v>
@@ -6413,36 +6538,36 @@
         <x:v>64851</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="K102" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L102" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:12">
-      <x:c r="A103" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A103" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B103" s="0" t="n">
         <x:v>8100000119862</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G103" s="0" t="n">
         <x:v>25</x:v>
@@ -6451,36 +6576,36 @@
         <x:v>985776</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="J103" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="K103" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L103" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:12">
-      <x:c r="A104" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A104" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B104" s="0" t="n">
         <x:v>8100000288259</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G104" s="0" t="n">
         <x:v>25</x:v>
@@ -6489,36 +6614,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="J104" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="K104" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L104" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:12">
-      <x:c r="A105" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A105" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B105" s="0" t="n">
         <x:v>8100000276242</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G105" s="0" t="n">
         <x:v>50</x:v>
@@ -6527,36 +6652,36 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="K105" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L105" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:12">
-      <x:c r="A106" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A106" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B106" s="0" t="n">
         <x:v>8100000289837</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F106" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G106" s="0" t="n">
         <x:v>25</x:v>
@@ -6565,36 +6690,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="J106" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="K106" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L106" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:12">
-      <x:c r="A107" s="1">
-        <x:v>44602</x:v>
+      <x:c r="A107" s="0" t="s">
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B107" s="0" t="n">
         <x:v>8100000254899</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F107" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G107" s="0" t="n">
         <x:v>50</x:v>
@@ -6603,36 +6728,36 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="J107" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="K107" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L107" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:12">
-      <x:c r="A108" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A108" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B108" s="0" t="n">
         <x:v>8100000094784</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
         <x:v>25</x:v>
@@ -6641,36 +6766,36 @@
         <x:v>875801</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="J108" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="K108" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L108" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:12">
-      <x:c r="A109" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A109" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B109" s="0" t="n">
         <x:v>8100000188623</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G109" s="0" t="n">
         <x:v>25</x:v>
@@ -6679,36 +6804,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="J109" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="K109" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L109" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:12">
-      <x:c r="A110" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A110" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B110" s="0" t="n">
         <x:v>8100000096822</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F110" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G110" s="0" t="n">
         <x:v>25</x:v>
@@ -6717,36 +6842,36 @@
         <x:v>315201</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="J110" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="K110" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L110" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:12">
-      <x:c r="A111" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A111" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B111" s="0" t="n">
         <x:v>8100000289512</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F111" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G111" s="0" t="n">
         <x:v>25</x:v>
@@ -6755,36 +6880,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="J111" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="K111" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L111" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:12">
-      <x:c r="A112" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A112" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B112" s="0" t="n">
         <x:v>8100000290359</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F112" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G112" s="0" t="n">
         <x:v>50</x:v>
@@ -6793,36 +6918,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="J112" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="K112" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L112" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:12">
-      <x:c r="A113" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A113" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B113" s="0" t="n">
         <x:v>8100000093559</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F113" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G113" s="0" t="n">
         <x:v>25</x:v>
@@ -6831,36 +6956,36 @@
         <x:v>937524</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="J113" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="K113" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L113" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:12">
-      <x:c r="A114" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A114" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B114" s="0" t="n">
         <x:v>8100000268020</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
         <x:v>25</x:v>
@@ -6869,36 +6994,36 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L114" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:12">
-      <x:c r="A115" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A115" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B115" s="0" t="n">
         <x:v>8100000054001</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F115" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
         <x:v>25</x:v>
@@ -6907,36 +7032,36 @@
         <x:v>199738</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="J115" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="K115" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L115" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:12">
-      <x:c r="A116" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A116" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B116" s="0" t="n">
         <x:v>8100000133670</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F116" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G116" s="0" t="n">
         <x:v>25</x:v>
@@ -6945,36 +7070,36 @@
         <x:v>791776</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="J116" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="K116" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L116" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:12">
-      <x:c r="A117" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A117" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B117" s="0" t="n">
         <x:v>8100000290021</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F117" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
         <x:v>25</x:v>
@@ -6983,36 +7108,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="J117" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="K117" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="L117" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:12">
-      <x:c r="A118" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A118" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B118" s="0" t="n">
         <x:v>8100000108245</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F118" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
         <x:v>25</x:v>
@@ -7021,36 +7146,36 @@
         <x:v>305001</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="J118" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="K118" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L118" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:12">
-      <x:c r="A119" s="1">
-        <x:v>44603</x:v>
+      <x:c r="A119" s="0" t="s">
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B119" s="0" t="n">
         <x:v>8100000134000</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F119" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G119" s="0" t="n">
         <x:v>25</x:v>
@@ -7059,36 +7184,36 @@
         <x:v>49301</x:v>
       </x:c>
       <x:c r="I119" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="J119" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L119" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:12">
-      <x:c r="A120" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A120" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B120" s="0" t="n">
         <x:v>8100000042758</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F120" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
         <x:v>25</x:v>
@@ -7097,36 +7222,36 @@
         <x:v>955187</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="J120" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="K120" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L120" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:12">
-      <x:c r="A121" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A121" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B121" s="0" t="n">
         <x:v>8100000154923</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F121" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
         <x:v>25</x:v>
@@ -7135,36 +7260,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I121" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="J121" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="K121" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L121" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:12">
-      <x:c r="A122" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A122" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B122" s="0" t="n">
         <x:v>8100000182394</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F122" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G122" s="0" t="n">
         <x:v>25</x:v>
@@ -7173,36 +7298,36 @@
         <x:v>290759</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="J122" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="K122" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="L122" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:12">
-      <x:c r="A123" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A123" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B123" s="0" t="n">
         <x:v>8100000289984</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F123" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G123" s="0" t="n">
         <x:v>50</x:v>
@@ -7211,36 +7336,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="J123" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="K123" s="0" t="n">
         <x:v>109</x:v>
       </x:c>
       <x:c r="L123" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:12">
-      <x:c r="A124" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A124" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B124" s="0" t="n">
         <x:v>8100000128007</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
         <x:v>25</x:v>
@@ -7249,36 +7374,36 @@
         <x:v>348001</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="J124" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L124" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:12">
-      <x:c r="A125" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A125" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B125" s="0" t="n">
         <x:v>8100000003642</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F125" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
         <x:v>25</x:v>
@@ -7287,36 +7412,36 @@
         <x:v>157251</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="J125" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L125" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:12">
-      <x:c r="A126" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A126" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B126" s="0" t="n">
         <x:v>8100000147494</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F126" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
         <x:v>25</x:v>
@@ -7325,36 +7450,36 @@
         <x:v>786414</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="J126" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="K126" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L126" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:12">
-      <x:c r="A127" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A127" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B127" s="0" t="n">
         <x:v>8100000066942</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F127" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G127" s="0" t="n">
         <x:v>25</x:v>
@@ -7363,36 +7488,36 @@
         <x:v>182501</x:v>
       </x:c>
       <x:c r="I127" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="J127" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="K127" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L127" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:12">
-      <x:c r="A128" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A128" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B128" s="0" t="n">
         <x:v>8100000108880</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F128" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G128" s="0" t="n">
         <x:v>25</x:v>
@@ -7401,36 +7526,36 @@
         <x:v>169051</x:v>
       </x:c>
       <x:c r="I128" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="J128" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="K128" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L128" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:12">
-      <x:c r="A129" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A129" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B129" s="0" t="n">
         <x:v>8100000195430</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F129" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
         <x:v>25</x:v>
@@ -7439,36 +7564,36 @@
         <x:v>42476</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="J129" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="K129" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L129" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>531</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:12">
-      <x:c r="A130" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A130" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B130" s="0" t="n">
         <x:v>8100000099336</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
         <x:v>25</x:v>
@@ -7477,36 +7602,36 @@
         <x:v>338686</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="J130" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="K130" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L130" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:12">
-      <x:c r="A131" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A131" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B131" s="0" t="n">
         <x:v>8100000267629</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F131" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G131" s="0" t="n">
         <x:v>25</x:v>
@@ -7515,36 +7640,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I131" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="J131" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="K131" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L131" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:12">
-      <x:c r="A132" s="1">
-        <x:v>44606</x:v>
+      <x:c r="A132" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B132" s="0" t="n">
         <x:v>8100000104233</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E132" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F132" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G132" s="0" t="n">
         <x:v>25</x:v>
@@ -7553,36 +7678,36 @@
         <x:v>707926</x:v>
       </x:c>
       <x:c r="I132" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="J132" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="K132" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L132" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:12">
-      <x:c r="A133" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A133" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B133" s="0" t="n">
         <x:v>8100000212695</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E133" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F133" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G133" s="0" t="n">
         <x:v>25</x:v>
@@ -7591,36 +7716,36 @@
         <x:v>153276</x:v>
       </x:c>
       <x:c r="I133" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="J133" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="K133" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L133" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:12">
-      <x:c r="A134" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A134" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B134" s="0" t="n">
         <x:v>8100000172807</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E134" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F134" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G134" s="0" t="n">
         <x:v>25</x:v>
@@ -7629,36 +7754,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I134" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="J134" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="K134" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L134" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:12">
-      <x:c r="A135" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A135" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B135" s="0" t="n">
         <x:v>8100000289285</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E135" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F135" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G135" s="0" t="n">
         <x:v>25</x:v>
@@ -7667,36 +7792,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I135" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="J135" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="K135" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L135" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:12">
-      <x:c r="A136" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A136" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B136" s="0" t="n">
         <x:v>8100000289286</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E136" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F136" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G136" s="0" t="n">
         <x:v>25</x:v>
@@ -7705,36 +7830,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I136" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="J136" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="K136" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L136" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:12">
-      <x:c r="A137" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A137" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B137" s="0" t="n">
         <x:v>8100000029655</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E137" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F137" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G137" s="0" t="n">
         <x:v>25</x:v>
@@ -7743,36 +7868,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I137" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="J137" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="K137" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L137" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:12">
-      <x:c r="A138" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A138" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B138" s="0" t="n">
         <x:v>8100000289308</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E138" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F138" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G138" s="0" t="n">
         <x:v>25</x:v>
@@ -7781,36 +7906,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I138" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="J138" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="K138" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L138" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:12">
-      <x:c r="A139" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A139" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B139" s="0" t="n">
         <x:v>8100000058640</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E139" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F139" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G139" s="0" t="n">
         <x:v>25</x:v>
@@ -7819,36 +7944,36 @@
         <x:v>215331</x:v>
       </x:c>
       <x:c r="I139" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="J139" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="K139" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L139" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:12">
-      <x:c r="A140" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A140" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B140" s="0" t="n">
         <x:v>8100000289310</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E140" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F140" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G140" s="0" t="n">
         <x:v>25</x:v>
@@ -7857,36 +7982,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I140" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="J140" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="K140" s="0" t="n">
         <x:v>116</x:v>
       </x:c>
       <x:c r="L140" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:12">
-      <x:c r="A141" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A141" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B141" s="0" t="n">
         <x:v>8100000001760</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E141" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F141" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G141" s="0" t="n">
         <x:v>25</x:v>
@@ -7895,36 +8020,36 @@
         <x:v>733217</x:v>
       </x:c>
       <x:c r="I141" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="J141" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="K141" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L141" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:12">
-      <x:c r="A142" s="1">
-        <x:v>44607</x:v>
+      <x:c r="A142" s="0" t="s">
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B142" s="0" t="n">
         <x:v>8100000290306</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E142" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F142" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G142" s="0" t="n">
         <x:v>50</x:v>
@@ -7933,36 +8058,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I142" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="J142" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="K142" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L142" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>582</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:12">
-      <x:c r="A143" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A143" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B143" s="0" t="n">
         <x:v>8100000216694</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E143" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F143" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G143" s="0" t="n">
         <x:v>25</x:v>
@@ -7971,36 +8096,36 @@
         <x:v>930201</x:v>
       </x:c>
       <x:c r="I143" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="J143" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="K143" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L143" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:12">
-      <x:c r="A144" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A144" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B144" s="0" t="n">
         <x:v>8100000056396</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E144" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F144" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G144" s="0" t="n">
         <x:v>25</x:v>
@@ -8009,36 +8134,36 @@
         <x:v>943476</x:v>
       </x:c>
       <x:c r="I144" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="J144" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="K144" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L144" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:12">
-      <x:c r="A145" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A145" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B145" s="0" t="n">
         <x:v>8100000212949</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E145" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F145" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G145" s="0" t="n">
         <x:v>25</x:v>
@@ -8047,36 +8172,36 @@
         <x:v>921701</x:v>
       </x:c>
       <x:c r="I145" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="J145" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="K145" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L145" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:12">
+      <x:c r="A146" s="0" t="s">
         <x:v>583</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:12">
-      <x:c r="A146" s="1">
-        <x:v>44608</x:v>
       </x:c>
       <x:c r="B146" s="0" t="n">
         <x:v>8100000290593</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F146" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G146" s="0" t="n">
         <x:v>25</x:v>
@@ -8085,36 +8210,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I146" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="J146" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="K146" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L146" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:12">
-      <x:c r="A147" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A147" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B147" s="0" t="n">
         <x:v>8100000290536</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F147" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G147" s="0" t="n">
         <x:v>25</x:v>
@@ -8123,36 +8248,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I147" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="J147" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="K147" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L147" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:12">
-      <x:c r="A148" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A148" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B148" s="0" t="n">
         <x:v>8100000187050</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E148" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F148" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G148" s="0" t="n">
         <x:v>25</x:v>
@@ -8161,36 +8286,36 @@
         <x:v>958024</x:v>
       </x:c>
       <x:c r="I148" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="J148" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="K148" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L148" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:12">
-      <x:c r="A149" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A149" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B149" s="0" t="n">
         <x:v>8100000185465</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E149" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F149" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G149" s="0" t="n">
         <x:v>25</x:v>
@@ -8199,36 +8324,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I149" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="J149" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="K149" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L149" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:12">
-      <x:c r="A150" s="1">
-        <x:v>44608</x:v>
+      <x:c r="A150" s="0" t="s">
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B150" s="0" t="n">
         <x:v>8100000026267</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E150" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F150" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G150" s="0" t="n">
         <x:v>25</x:v>
@@ -8237,36 +8362,36 @@
         <x:v>130776</x:v>
       </x:c>
       <x:c r="I150" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="J150" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="K150" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="L150" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>615</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:12">
-      <x:c r="A151" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A151" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B151" s="0" t="n">
         <x:v>8100000008099</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E151" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F151" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G151" s="0" t="n">
         <x:v>25</x:v>
@@ -8275,36 +8400,36 @@
         <x:v>172051</x:v>
       </x:c>
       <x:c r="I151" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="J151" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="K151" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L151" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:12">
-      <x:c r="A152" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A152" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B152" s="0" t="n">
         <x:v>8100000239297</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E152" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F152" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G152" s="0" t="n">
         <x:v>25</x:v>
@@ -8313,36 +8438,36 @@
         <x:v>141751</x:v>
       </x:c>
       <x:c r="I152" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="J152" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="K152" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L152" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:12">
-      <x:c r="A153" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A153" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B153" s="0" t="n">
         <x:v>8100000139513</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E153" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F153" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G153" s="0" t="n">
         <x:v>25</x:v>
@@ -8351,36 +8476,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I153" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="J153" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="K153" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L153" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:12">
-      <x:c r="A154" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A154" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B154" s="0" t="n">
         <x:v>8100000127199</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E154" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F154" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G154" s="0" t="n">
         <x:v>25</x:v>
@@ -8389,36 +8514,36 @@
         <x:v>938501</x:v>
       </x:c>
       <x:c r="I154" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="J154" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="K154" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L154" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:12">
-      <x:c r="A155" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A155" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B155" s="0" t="n">
         <x:v>8100000055707</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E155" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F155" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G155" s="0" t="n">
         <x:v>25</x:v>
@@ -8427,36 +8552,36 @@
         <x:v>773974</x:v>
       </x:c>
       <x:c r="I155" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="J155" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="K155" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L155" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:12">
-      <x:c r="A156" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A156" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B156" s="0" t="n">
         <x:v>8100000063797</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E156" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F156" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G156" s="0" t="n">
         <x:v>25</x:v>
@@ -8465,36 +8590,36 @@
         <x:v>950476</x:v>
       </x:c>
       <x:c r="I156" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="J156" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="K156" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L156" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:12">
-      <x:c r="A157" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A157" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B157" s="0" t="n">
         <x:v>8100000220080</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E157" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F157" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G157" s="0" t="n">
         <x:v>25</x:v>
@@ -8503,36 +8628,36 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I157" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="J157" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="K157" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L157" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:12">
-      <x:c r="A158" s="1">
-        <x:v>44609</x:v>
+      <x:c r="A158" s="0" t="s">
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B158" s="0" t="n">
         <x:v>8100000068286</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="E158" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F158" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G158" s="0" t="n">
         <x:v>25</x:v>
@@ -8541,36 +8666,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I158" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="J158" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="K158" s="0" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="L158" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:12">
-      <x:c r="A159" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A159" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B159" s="0" t="n">
         <x:v>8100000290626</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E159" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F159" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G159" s="0" t="n">
         <x:v>25</x:v>
@@ -8579,36 +8704,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I159" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="J159" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="K159" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L159" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>654</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:12">
-      <x:c r="A160" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A160" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B160" s="0" t="n">
         <x:v>8100000249227</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E160" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F160" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
         <x:v>25</x:v>
@@ -8617,36 +8742,36 @@
         <x:v>40826</x:v>
       </x:c>
       <x:c r="I160" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="J160" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L160" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:12">
-      <x:c r="A161" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A161" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B161" s="0" t="n">
         <x:v>8100000162349</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="E161" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F161" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G161" s="0" t="n">
         <x:v>25</x:v>
@@ -8655,36 +8780,36 @@
         <x:v>138226</x:v>
       </x:c>
       <x:c r="I161" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="J161" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="K161" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L161" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:12">
-      <x:c r="A162" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A162" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B162" s="0" t="n">
         <x:v>8100000162474</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E162" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F162" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G162" s="0" t="n">
         <x:v>25</x:v>
@@ -8693,36 +8818,36 @@
         <x:v>48201</x:v>
       </x:c>
       <x:c r="I162" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="J162" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L162" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:12">
-      <x:c r="A163" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A163" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B163" s="0" t="n">
         <x:v>8100000005009</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="D163" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E163" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F163" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G163" s="0" t="n">
         <x:v>25</x:v>
@@ -8731,36 +8856,36 @@
         <x:v>18801</x:v>
       </x:c>
       <x:c r="I163" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="J163" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="K163" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L163" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:12">
-      <x:c r="A164" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A164" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B164" s="0" t="n">
         <x:v>8100000263105</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="D164" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E164" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F164" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G164" s="0" t="n">
         <x:v>25</x:v>
@@ -8769,36 +8894,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I164" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="J164" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="K164" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L164" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:12">
-      <x:c r="A165" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A165" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B165" s="0" t="n">
         <x:v>8100000161881</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="D165" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E165" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F165" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G165" s="0" t="n">
         <x:v>25</x:v>
@@ -8807,36 +8932,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I165" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="J165" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="K165" s="0" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="L165" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:12">
-      <x:c r="A166" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A166" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B166" s="0" t="n">
         <x:v>8100000194080</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="D166" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E166" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F166" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G166" s="0" t="n">
         <x:v>25</x:v>
@@ -8845,36 +8970,36 @@
         <x:v>964427</x:v>
       </x:c>
       <x:c r="I166" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="J166" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="K166" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L166" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:12">
-      <x:c r="A167" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A167" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B167" s="0" t="n">
         <x:v>8100000059773</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D167" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E167" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F167" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G167" s="0" t="n">
         <x:v>25</x:v>
@@ -8883,36 +9008,36 @@
         <x:v>168176</x:v>
       </x:c>
       <x:c r="I167" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="J167" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="K167" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L167" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:12">
-      <x:c r="A168" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A168" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B168" s="0" t="n">
         <x:v>8100000013852</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="D168" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E168" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F168" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G168" s="0" t="n">
         <x:v>25</x:v>
@@ -8921,36 +9046,36 @@
         <x:v>59026</x:v>
       </x:c>
       <x:c r="I168" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="J168" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="K168" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L168" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:12">
-      <x:c r="A169" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A169" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B169" s="0" t="n">
         <x:v>8100000282561</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="D169" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E169" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F169" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G169" s="0" t="n">
         <x:v>50</x:v>
@@ -8959,36 +9084,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I169" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="J169" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="K169" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L169" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:12">
-      <x:c r="A170" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A170" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B170" s="0" t="n">
         <x:v>8100000054199</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="D170" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E170" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F170" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
         <x:v>25</x:v>
@@ -8997,36 +9122,36 @@
         <x:v>16426</x:v>
       </x:c>
       <x:c r="I170" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="J170" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="K170" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="L170" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:12">
-      <x:c r="A171" s="1">
-        <x:v>44610</x:v>
+      <x:c r="A171" s="0" t="s">
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B171" s="0" t="n">
         <x:v>8100000290323</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D171" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E171" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F171" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
         <x:v>50</x:v>
@@ -9035,36 +9160,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I171" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="J171" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="K171" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L171" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>703</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:12">
-      <x:c r="A172" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A172" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B172" s="0" t="n">
         <x:v>8100000262682</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="D172" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E172" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F172" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G172" s="0" t="n">
         <x:v>25</x:v>
@@ -9073,36 +9198,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I172" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="J172" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="K172" s="0" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="L172" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:12">
-      <x:c r="A173" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A173" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B173" s="0" t="n">
         <x:v>8100000080139</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="D173" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E173" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F173" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G173" s="0" t="n">
         <x:v>25</x:v>
@@ -9111,36 +9236,36 @@
         <x:v>975800</x:v>
       </x:c>
       <x:c r="I173" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="J173" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="K173" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L173" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:12">
-      <x:c r="A174" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A174" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B174" s="0" t="n">
         <x:v>8100000059112</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D174" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E174" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F174" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G174" s="0" t="n">
         <x:v>50</x:v>
@@ -9149,36 +9274,36 @@
         <x:v>221451</x:v>
       </x:c>
       <x:c r="I174" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="J174" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="K174" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L174" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:12">
-      <x:c r="A175" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A175" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B175" s="0" t="n">
         <x:v>8100000033415</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="D175" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E175" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F175" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G175" s="0" t="n">
         <x:v>25</x:v>
@@ -9187,36 +9312,36 @@
         <x:v>916999</x:v>
       </x:c>
       <x:c r="I175" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="J175" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="K175" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L175" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:12">
-      <x:c r="A176" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A176" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B176" s="0" t="n">
         <x:v>8100000133404</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="D176" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E176" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F176" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G176" s="0" t="n">
         <x:v>25</x:v>
@@ -9225,36 +9350,36 @@
         <x:v>310876</x:v>
       </x:c>
       <x:c r="I176" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="J176" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="K176" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L176" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>722</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:12">
-      <x:c r="A177" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A177" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B177" s="0" t="n">
         <x:v>8100000035365</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="D177" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E177" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F177" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G177" s="0" t="n">
         <x:v>25</x:v>
@@ -9263,36 +9388,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I177" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="J177" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="K177" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L177" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:12">
-      <x:c r="A178" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A178" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B178" s="0" t="n">
         <x:v>8100000259412</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="D178" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E178" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F178" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
         <x:v>50</x:v>
@@ -9301,36 +9426,36 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="I178" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="J178" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="K178" s="0" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="L178" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:12">
-      <x:c r="A179" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A179" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B179" s="0" t="n">
         <x:v>8100000290609</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D179" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E179" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F179" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G179" s="0" t="n">
         <x:v>25</x:v>
@@ -9339,36 +9464,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I179" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="J179" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="K179" s="0" t="n">
         <x:v>112</x:v>
       </x:c>
       <x:c r="L179" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>734</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:12">
-      <x:c r="A180" s="1">
-        <x:v>44613</x:v>
+      <x:c r="A180" s="0" t="s">
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B180" s="0" t="n">
         <x:v>8100000069783</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="D180" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E180" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F180" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G180" s="0" t="n">
         <x:v>25</x:v>
@@ -9377,36 +9502,36 @@
         <x:v>976398</x:v>
       </x:c>
       <x:c r="I180" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="J180" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L180" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>738</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:12">
-      <x:c r="A181" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A181" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B181" s="0" t="n">
         <x:v>8100000164723</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D181" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E181" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F181" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
         <x:v>25</x:v>
@@ -9415,36 +9540,36 @@
         <x:v>987062</x:v>
       </x:c>
       <x:c r="I181" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J181" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K181" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L181" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:12">
-      <x:c r="A182" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A182" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B182" s="0" t="n">
         <x:v>8100000092160</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D182" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E182" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F182" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G182" s="0" t="n">
         <x:v>25</x:v>
@@ -9453,36 +9578,36 @@
         <x:v>82951</x:v>
       </x:c>
       <x:c r="I182" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J182" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K182" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L182" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:12">
-      <x:c r="A183" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A183" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B183" s="0" t="n">
         <x:v>8100000271664</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D183" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E183" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F183" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G183" s="0" t="n">
         <x:v>25</x:v>
@@ -9491,36 +9616,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I183" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J183" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K183" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L183" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:12">
-      <x:c r="A184" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A184" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B184" s="0" t="n">
         <x:v>8100000276859</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D184" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E184" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F184" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G184" s="0" t="n">
         <x:v>25</x:v>
@@ -9529,36 +9654,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I184" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J184" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K184" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L184" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:12">
-      <x:c r="A185" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A185" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B185" s="0" t="n">
         <x:v>8100000081547</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D185" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E185" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F185" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G185" s="0" t="n">
         <x:v>25</x:v>
@@ -9567,36 +9692,36 @@
         <x:v>307676</x:v>
       </x:c>
       <x:c r="I185" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J185" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K185" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L185" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:12">
-      <x:c r="A186" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A186" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B186" s="0" t="n">
         <x:v>8100000025976</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D186" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E186" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F186" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G186" s="0" t="n">
         <x:v>25</x:v>
@@ -9605,36 +9730,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I186" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J186" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="K186" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L186" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:12">
-      <x:c r="A187" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A187" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B187" s="0" t="n">
         <x:v>8100000108882</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D187" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E187" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F187" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G187" s="0" t="n">
         <x:v>25</x:v>
@@ -9643,36 +9768,36 @@
         <x:v>860672</x:v>
       </x:c>
       <x:c r="I187" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J187" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>103</x:v>
       </x:c>
       <x:c r="L187" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:12">
-      <x:c r="A188" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A188" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B188" s="0" t="n">
         <x:v>8100000172772</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D188" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E188" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F188" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G188" s="0" t="n">
         <x:v>25</x:v>
@@ -9681,36 +9806,36 @@
         <x:v>56576</x:v>
       </x:c>
       <x:c r="I188" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J188" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K188" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L188" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:12">
-      <x:c r="A189" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A189" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B189" s="0" t="n">
         <x:v>8100000178868</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D189" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E189" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F189" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G189" s="0" t="n">
         <x:v>50</x:v>
@@ -9719,36 +9844,36 @@
         <x:v>221796</x:v>
       </x:c>
       <x:c r="I189" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J189" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K189" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L189" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:12">
-      <x:c r="A190" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A190" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B190" s="0" t="n">
         <x:v>8100000275341</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D190" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E190" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F190" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G190" s="0" t="n">
         <x:v>25</x:v>
@@ -9757,36 +9882,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I190" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J190" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="K190" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L190" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:12">
-      <x:c r="A191" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A191" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B191" s="0" t="n">
         <x:v>8100000199631</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D191" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E191" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F191" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G191" s="0" t="n">
         <x:v>25</x:v>
@@ -9795,36 +9920,36 @@
         <x:v>345771</x:v>
       </x:c>
       <x:c r="I191" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J191" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K191" s="0" t="n">
         <x:v>111</x:v>
       </x:c>
       <x:c r="L191" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:12">
-      <x:c r="A192" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A192" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B192" s="0" t="n">
         <x:v>8100000066156</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D192" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E192" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F192" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G192" s="0" t="n">
         <x:v>25</x:v>
@@ -9833,36 +9958,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I192" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="J192" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="K192" s="0" t="n">
         <x:v>106</x:v>
       </x:c>
       <x:c r="L192" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:12">
-      <x:c r="A193" s="1">
-        <x:v>44593</x:v>
+      <x:c r="A193" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B193" s="0" t="n">
         <x:v>8100000253285</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F193" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G193" s="0" t="n">
         <x:v>25</x:v>
@@ -9871,36 +9996,36 @@
         <x:v>275402</x:v>
       </x:c>
       <x:c r="I193" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J193" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K193" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L193" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:12">
-      <x:c r="A194" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A194" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B194" s="0" t="n">
         <x:v>8100000051253</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D194" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E194" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F194" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G194" s="0" t="n">
         <x:v>25</x:v>
@@ -9909,36 +10034,36 @@
         <x:v>313976</x:v>
       </x:c>
       <x:c r="I194" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="J194" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K194" s="0" t="n">
         <x:v>114</x:v>
       </x:c>
       <x:c r="L194" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:12">
-      <x:c r="A195" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A195" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B195" s="0" t="n">
         <x:v>8100000023201</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D195" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E195" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F195" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G195" s="0" t="n">
         <x:v>25</x:v>
@@ -9947,36 +10072,36 @@
         <x:v>123476</x:v>
       </x:c>
       <x:c r="I195" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J195" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K195" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L195" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:12">
-      <x:c r="A196" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A196" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B196" s="0" t="n">
         <x:v>8100000130404</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D196" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E196" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F196" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G196" s="0" t="n">
         <x:v>25</x:v>
@@ -9985,36 +10110,36 @@
         <x:v>954040</x:v>
       </x:c>
       <x:c r="I196" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J196" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K196" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L196" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:12">
-      <x:c r="A197" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A197" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B197" s="0" t="n">
         <x:v>8100000059112</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D197" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E197" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F197" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
         <x:v>50</x:v>
@@ -10023,36 +10148,36 @@
         <x:v>221401</x:v>
       </x:c>
       <x:c r="I197" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="J197" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K197" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="L197" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:12">
-      <x:c r="A198" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A198" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B198" s="0" t="n">
         <x:v>8100000184767</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D198" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E198" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F198" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
         <x:v>25</x:v>
@@ -10061,36 +10186,36 @@
         <x:v>63726</x:v>
       </x:c>
       <x:c r="I198" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="J198" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K198" s="0" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="L198" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:12">
-      <x:c r="A199" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A199" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B199" s="0" t="n">
         <x:v>8100000116837</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D199" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E199" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F199" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G199" s="0" t="n">
         <x:v>25</x:v>
@@ -10099,36 +10224,36 @@
         <x:v>51451</x:v>
       </x:c>
       <x:c r="I199" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J199" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K199" s="0" t="n">
         <x:v>115</x:v>
       </x:c>
       <x:c r="L199" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:12">
-      <x:c r="A200" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A200" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B200" s="0" t="n">
         <x:v>8100000255574</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D200" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E200" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F200" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G200" s="0" t="n">
         <x:v>25</x:v>
@@ -10137,36 +10262,36 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I200" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J200" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
         <x:v>105</x:v>
       </x:c>
       <x:c r="L200" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:12">
-      <x:c r="A201" s="1">
-        <x:v>44594</x:v>
+      <x:c r="A201" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B201" s="0" t="n">
         <x:v>8100000159262</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D201" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E201" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F201" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G201" s="0" t="n">
         <x:v>25</x:v>
@@ -10175,16 +10300,16 @@
         <x:v>917026</x:v>
       </x:c>
       <x:c r="I201" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J201" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K201" s="0" t="n">
         <x:v>107</x:v>
       </x:c>
       <x:c r="L201" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
